--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/12.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/12.xlsx
@@ -479,13 +479,13 @@
         <v>-20.03974548973078</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.792413625559909</v>
+        <v>-8.753542578422826</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.909033851453574</v>
+        <v>-2.923815061361883</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.329839923797249</v>
+        <v>-5.333479583987249</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.89932845697044</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.05682577375141</v>
+        <v>-9.014210328001591</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.963798954240514</v>
+        <v>-2.984799007998643</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.249845953434303</v>
+        <v>-5.253066659933368</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.64934623626555</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.8815622989631</v>
+        <v>-9.838279145768354</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.837091647338289</v>
+        <v>-2.859963900402785</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.115754587729344</v>
+        <v>-5.118975294228409</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.29137242242373</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.65492462782386</v>
+        <v>-10.61462651967703</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.768789103413004</v>
+        <v>-2.786097127769766</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.338559397489838</v>
+        <v>-5.343639210992428</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.81867918939736</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.44386679706627</v>
+        <v>-11.40026942860333</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.617821759345061</v>
+        <v>-2.633925291840384</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.889480317715793</v>
+        <v>-4.894350654372915</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-18.23037033634882</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.12530806767527</v>
+        <v>-12.08125246861287</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.604218856692508</v>
+        <v>-2.61842400527578</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.999468753889134</v>
+        <v>-5.007585981651004</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.53812086604187</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.64231001459219</v>
+        <v>-12.59500752442504</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.480706071683664</v>
+        <v>-2.494439897364635</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.555862256702929</v>
+        <v>-4.567029991026922</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.77089927334175</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.59926570620248</v>
+        <v>-13.55310224638255</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.217603153776337</v>
+        <v>-2.23446603983648</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.462435583624372</v>
+        <v>-4.477229885835523</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.96073468358187</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.35405005733083</v>
+        <v>-14.30707487473471</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.194455962352165</v>
+        <v>-2.207076942291589</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.04949125969349</v>
+        <v>-4.068867867899245</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.13126566133681</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.02923320718148</v>
+        <v>-14.98495503897076</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.029833346420302</v>
+        <v>-2.04271617241656</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.842122274983391</v>
+        <v>-3.860477683567491</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.30958061596405</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.67188198447045</v>
+        <v>-15.62872975430412</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.043252956833071</v>
+        <v>-2.052849614816056</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.337675846491686</v>
+        <v>-3.355193347693915</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.51647344398242</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.62928281437735</v>
+        <v>-16.58602584578829</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.856726918247</v>
+        <v>-1.86894203679833</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.693023946867936</v>
+        <v>-2.711811401445813</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.79034054763977</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.25403441368168</v>
+        <v>-17.2163285814975</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.604006196493161</v>
+        <v>-1.616051115107549</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.310231196381549</v>
+        <v>-2.331362173168095</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.15031271915567</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.15155105039052</v>
+        <v>-18.11320369536711</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.456233374318599</v>
+        <v>-1.463329402458815</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.745416159486645</v>
+        <v>-1.76161133810186</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.60281918708404</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.04369984293426</v>
+        <v>-19.00726396412574</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.299544693908822</v>
+        <v>-1.306522891323462</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.335195034546842</v>
+        <v>-1.360201332974538</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.15653141614895</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.83486770365977</v>
+        <v>-19.79561697974027</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.063516658278184</v>
+        <v>-1.06743125682786</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8168707650429067</v>
+        <v>-0.8436052474457113</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.81668833296994</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.78955842687843</v>
+        <v>-20.75466743980524</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9769110749801662</v>
+        <v>-0.9765575828034395</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4508885314052962</v>
+        <v>-0.4750569224511225</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.58645053629116</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.62483425587772</v>
+        <v>-21.58915773063401</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8232859934353525</v>
+        <v>-0.8209686558323669</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.07859580779797366</v>
+        <v>-0.1066526127877926</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.45227201245084</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.26352915770848</v>
+        <v>-22.22799664779604</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5705652716815142</v>
+        <v>-0.5685359647410466</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3049955731617584</v>
+        <v>0.2792561057749249</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.39714762751093</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.89013986401633</v>
+        <v>-22.85663666104436</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2695863216530736</v>
+        <v>-0.2676355685296564</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6415201254054853</v>
+        <v>0.6129396283019972</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.40394638477805</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.52918825802382</v>
+        <v>-23.49331534823749</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.03569233138563734</v>
+        <v>-0.02792859580049378</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6391242339854494</v>
+        <v>0.6074801380169975</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.46580156767079</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.01578987774225</v>
+        <v>-23.98457782776758</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06562900030648069</v>
+        <v>0.07590645803723567</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9114703176990351</v>
+        <v>0.877011376619612</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.56782550449182</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.38076400406105</v>
+        <v>-24.34843910834483</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04458966963982691</v>
+        <v>0.05137148251184101</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8494389868349369</v>
+        <v>0.8150847841782477</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.68693948745771</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.66618929831352</v>
+        <v>-24.63419171016834</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3273441341125848</v>
+        <v>0.3350424081835197</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8208584897314489</v>
+        <v>0.7895809782425653</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.8098302302521</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.67687261743237</v>
+        <v>-24.6456605674577</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3431989128539151</v>
+        <v>0.3483049109621882</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6853007861082172</v>
+        <v>0.6493624148076792</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.92555377149617</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.60997094991115</v>
+        <v>-24.58251639085205</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1558087822802899</v>
+        <v>0.1633499487171241</v>
       </c>
       <c r="G27" t="n">
-        <v>0.651090598782787</v>
+        <v>0.6166709346118892</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.032151472522</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.72297061573809</v>
+        <v>-24.69710022532284</v>
       </c>
       <c r="F28" t="n">
-        <v>0.292780454610428</v>
+        <v>0.2978602681130177</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3506484331708572</v>
+        <v>0.3157836307033407</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.12177381075358</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.75054300552276</v>
+        <v>-24.72450241517057</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2725528467199612</v>
+        <v>0.2736526001586662</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2328046152924809</v>
+        <v>0.1991443046864032</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.18591785396579</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.54975944914205</v>
+        <v>-24.52345701273303</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1190586882035648</v>
+        <v>0.1226852560907229</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03880287178378398</v>
+        <v>0.002943054300296286</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.22449841523303</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.07152381093948</v>
+        <v>-24.044763143931</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1253168089619099</v>
+        <v>0.1277781618961543</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.4553922835828499</v>
+        <v>-0.4857140569642875</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.2433240090927</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.12497968344225</v>
+        <v>-24.09939732368952</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1743212984984905</v>
+        <v>0.1775289126947134</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.566794688463097</v>
+        <v>-0.5943670782477721</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.24747925473228</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.72838764576068</v>
+        <v>-23.6998726101714</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1049320934373424</v>
+        <v>0.1070006772863351</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.061225505280882</v>
+        <v>-1.084123942951061</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.23465961226839</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.15790364173531</v>
+        <v>-23.13294971251898</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.03583634671689633</v>
+        <v>-0.03739433075506173</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.143091674950195</v>
+        <v>-1.166435250916993</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.20729397337846</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.79354485365008</v>
+        <v>-22.77346126109087</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2345905961571398</v>
+        <v>-0.2354285035390102</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.188744534959294</v>
+        <v>-1.207466528022962</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.16688702301212</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.07708167293946</v>
+        <v>-22.05856915672126</v>
       </c>
       <c r="F36" t="n">
         <v>-0.353442521354329</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.397252550016623</v>
+        <v>-1.420425926046478</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.1239036483272</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.28161953688187</v>
+        <v>-21.25984703725608</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2887534530133605</v>
+        <v>-0.2894997142753389</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.513839506822194</v>
+        <v>-1.538243559319171</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.07996587274</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.91013853605073</v>
+        <v>-20.8895443436807</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3672679931551918</v>
+        <v>-0.3645055172555876</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.768327689459665</v>
+        <v>-1.793189972556103</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.02952185843382</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.25384757920069</v>
+        <v>-20.2342091249381</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2046223149524288</v>
+        <v>-0.2025406388005944</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.926063754096781</v>
+        <v>-1.949852468360197</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.97603790181081</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.92437977818865</v>
+        <v>-19.91026627572527</v>
       </c>
       <c r="F40" t="n">
         <v>-0.4774135369626332</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.145844241900837</v>
+        <v>-2.170065002158029</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.92419620549073</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.4059900471705</v>
+        <v>-19.3901745453377</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.192184627252789</v>
+        <v>-0.1918835042874293</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.994693605593109</v>
+        <v>-2.014737921243792</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.88117387130127</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.81370735891366</v>
+        <v>-18.8005103176492</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0426781934249349</v>
+        <v>0.0453883001131722</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.010757861179907</v>
+        <v>-2.021009134304979</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.84603973385617</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.9207992128051</v>
+        <v>-17.90519318781777</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05632037298601347</v>
+        <v>0.05405540459439485</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.900861071126458</v>
+        <v>-1.907197745701854</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.81929546646242</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.57440306421871</v>
+        <v>-17.56193919191339</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08399750119342238</v>
+        <v>0.08361782441101231</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.095425783657349</v>
+        <v>-2.100963827759399</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.80388539485955</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.03249955729683</v>
+        <v>-17.02380626820992</v>
       </c>
       <c r="F45" t="n">
-        <v>0.05244505134486255</v>
+        <v>0.05148931323741655</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.152141639567707</v>
+        <v>-2.154760100136052</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.81153011778647</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.62568243109587</v>
+        <v>-16.62439938541739</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09322757469683925</v>
+        <v>0.08902494548464518</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.093579768956666</v>
+        <v>-2.098960705424616</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.84727663304119</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.99843020194878</v>
+        <v>-15.994607249519</v>
       </c>
       <c r="F47" t="n">
-        <v>0.106765015835184</v>
+        <v>0.1005854488938893</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.403592407945898</v>
+        <v>-2.403016346620861</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.9057057181939</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.34128824541402</v>
+        <v>-15.33959933834744</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09771823457155129</v>
+        <v>0.08965337602104803</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.332331003578382</v>
+        <v>-2.33284160338921</v>
       </c>
     </row>
     <row r="49">
@@ -1563,10 +1563,10 @@
         <v>-14.79621640120444</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2273713096131645</v>
+        <v>0.2218201732082727</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.542436279582402</v>
+        <v>-2.540236772704993</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.10198512321764</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.12700334144961</v>
+        <v>-14.12759249507749</v>
       </c>
       <c r="F50" t="n">
-        <v>0.376754485037259</v>
+        <v>0.3736385169609282</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.496220450551109</v>
+        <v>-2.484110070422513</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.24568185765775</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.34119023258637</v>
+        <v>-13.3459689231236</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3613317522897057</v>
+        <v>0.3572731384087706</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.564509902173552</v>
+        <v>-2.552622091193265</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.41542531837618</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.73087944331647</v>
+        <v>-12.73910140950107</v>
       </c>
       <c r="F52" t="n">
-        <v>0.448683596849702</v>
+        <v>0.4458425671330474</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.56911839277384</v>
+        <v>-2.558264873718049</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.60038474280613</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.10307733745002</v>
+        <v>-12.11018645789308</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5025322384377213</v>
+        <v>0.498054670865851</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.603773718395889</v>
+        <v>-2.589175800727364</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.79533518083625</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.71668420368216</v>
+        <v>-11.72400280097069</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3992732459250278</v>
+        <v>0.3946516630218985</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.702450404913979</v>
+        <v>-2.689685409643296</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.9988898305105</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.25761569683988</v>
+        <v>-11.26719926252002</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1372308045478806</v>
+        <v>0.1336435135692476</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.186184810310073</v>
+        <v>-3.167279525006621</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.20671283055888</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.84578421865054</v>
+        <v>-10.85339084660159</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2256954948494236</v>
+        <v>0.2226057113787763</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.261295351713056</v>
+        <v>-3.239915621172517</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.40529230980973</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.08027727149482</v>
+        <v>-10.08953352960392</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1868244477123389</v>
+        <v>0.1830014952825549</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.615363589764696</v>
+        <v>-3.590553675879625</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.58865442608469</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.780764659384651</v>
+        <v>-9.789274656231774</v>
       </c>
       <c r="F58" t="n">
-        <v>0.008454913796662961</v>
+        <v>0.003270361871339438</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.641914779927716</v>
+        <v>-3.623389171406674</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.75172262615048</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.208984517377949</v>
+        <v>-9.223163481355538</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09523069703162335</v>
+        <v>0.09337159002809824</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.923752783201553</v>
+        <v>-3.90256943720364</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.89918480194098</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.876557855923682</v>
+        <v>-8.888930082109114</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.04157077536157235</v>
+        <v>-0.04480457416347868</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.847948349747959</v>
+        <v>-3.828427726210946</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.02819567155236</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.340087654681115</v>
+        <v>-8.355719864274137</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.06545113574488069</v>
+        <v>-0.06803031940470074</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.251793523203841</v>
+        <v>-4.229366408435965</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.12991972727339</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.855620080325884</v>
+        <v>-7.868044675722683</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.01982446034146535</v>
+        <v>-0.02091112147732861</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.213419983574743</v>
+        <v>-4.193506590952477</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.20663357071938</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.378287811019393</v>
+        <v>-7.385252916131192</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.04523662015725564</v>
+        <v>-0.05010695681437774</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.211979830262153</v>
+        <v>-4.19353277555816</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.26257736070148</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.049657917389228</v>
+        <v>-7.058691606350019</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2149128649860255</v>
+        <v>-0.218473971358975</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.437442377499517</v>
+        <v>-4.424441720777683</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.30312567636818</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.662217399394028</v>
+        <v>-6.669863304253596</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1699669893303799</v>
+        <v>-0.1732531573436532</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.710168137995513</v>
+        <v>-4.698306511620909</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.3245009589016</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.411525984580657</v>
+        <v>-6.418857674172024</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2754647656290086</v>
+        <v>-0.2814217634219939</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.690595145247133</v>
+        <v>-4.679663072374291</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-13.32499281987566</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.263373485623685</v>
+        <v>-6.270862282849152</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3384780192062361</v>
+        <v>-0.3424711715729626</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.782987526401193</v>
+        <v>-4.77416331428587</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.30341213159165</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.990333509859488</v>
+        <v>-5.997652107148013</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3008900177476406</v>
+        <v>-0.3085882918185755</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.799562381798818</v>
+        <v>-4.790135923752776</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.26859578164416</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.851175422954781</v>
+        <v>-5.858271451094997</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.552890662845184</v>
+        <v>-0.5574860611426298</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.878875552413995</v>
+        <v>-4.872421047113024</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.22147309032085</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.645390606888531</v>
+        <v>-5.646660560264179</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5057714649178118</v>
+        <v>-0.511165493688603</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.721545349164972</v>
+        <v>-4.718298458060224</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-13.1535790572193</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.52690526617091</v>
+        <v>-5.52622446642314</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5800964681502907</v>
+        <v>-0.5887242957229882</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.68808142310152</v>
+        <v>-4.685161839567816</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.06647610681716</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.535127232355514</v>
+        <v>-5.530034326550083</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.6925593495607176</v>
+        <v>-0.6974951477320483</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.5768754027639</v>
+        <v>-4.579821170903288</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.96103849354391</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.580348046370836</v>
+        <v>-5.571288172804361</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7262065678639537</v>
+        <v>-0.7350962414934856</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.371889217170994</v>
+        <v>-4.376851199948009</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.84361175961816</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.82332809481043</v>
+        <v>-5.814713359540574</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6200279918175552</v>
+        <v>-0.6297817574346412</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.244985525726144</v>
+        <v>-4.252291030711827</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.71130422784037</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.036915923370349</v>
+        <v>-6.026023127406033</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9542875756696635</v>
+        <v>-0.9620251266491235</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.072049297489785</v>
+        <v>-4.076670880392913</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.55952729305913</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.537277553375436</v>
+        <v>-6.531608586244968</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8826464945197384</v>
+        <v>-0.8886296769184072</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.907714712220439</v>
+        <v>-3.914876201874863</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.38740285595741</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.992889692267503</v>
+        <v>-6.987168355925669</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9431067490428294</v>
+        <v>-0.9497838234921097</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.833428985896485</v>
+        <v>-3.839883491197456</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.20227123419822</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.567759617744853</v>
+        <v>-7.559131790172156</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.9996131281077191</v>
+        <v>-1.009641832084481</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.457902463487256</v>
+        <v>-3.461227908409054</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.00746131254868</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.989410323065483</v>
+        <v>-7.979564911328505</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9619465728320732</v>
+        <v>-0.9744366297430799</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.257721153037264</v>
+        <v>-3.258663798841869</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.79857130236342</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.464307424043412</v>
+        <v>-8.454841689088845</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.16740408132728</v>
+        <v>-1.175049986186848</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.880610461984187</v>
+        <v>-2.884328675991237</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.57701394960289</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.38769445116751</v>
+        <v>-9.385350928958841</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.087829064655269</v>
+        <v>-1.097032953553003</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.87145894229782</v>
+        <v>-2.872859818701885</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.34360940530577</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.18940161568061</v>
+        <v>-10.18936233877208</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.18052256877469</v>
+        <v>-1.189333688587171</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.681096858979123</v>
+        <v>-2.683859334878727</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.10920348181115</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02014750789665</v>
+        <v>-11.02258267622521</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.279906239646232</v>
+        <v>-1.28777471365411</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.319749300547484</v>
+        <v>-2.322616514869822</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.8755066622578</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.2241549541303</v>
+        <v>-12.22913002921016</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.365019300420294</v>
+        <v>-1.373188897393531</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.189441610363784</v>
+        <v>-2.195791377242021</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.63986418938267</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.0973068152507</v>
+        <v>-13.10314598231811</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.454727759491801</v>
+        <v>-1.463944740692376</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.850350966763079</v>
+        <v>-1.855705718625345</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.40520511126839</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.28324688356277</v>
+        <v>-14.29315775681396</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.640206413850534</v>
+        <v>-1.652277517070605</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.602670781603305</v>
+        <v>-1.609518055989528</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.17885824885165</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.36523406731154</v>
+        <v>-15.37847038548452</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.692012656195244</v>
+        <v>-1.704253959352258</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.19076074959692</v>
+        <v>-1.19659991666433</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-9.967973466310282</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.74651129402217</v>
+        <v>-16.76184238064983</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.688019503828518</v>
+        <v>-1.703036375187977</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.8695803762836958</v>
+        <v>-0.8786402498501702</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.771619883170667</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.41966832028623</v>
+        <v>-18.44192523511716</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.929873614223723</v>
+        <v>-1.944903577886025</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.6665449438142079</v>
+        <v>-0.6722662801560423</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.590991645945572</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.01050094628152</v>
+        <v>-20.03828281291167</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.140947720638031</v>
+        <v>-2.158137914269217</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3615073799048323</v>
+        <v>-0.3687997925876737</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.426200072221489</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.83886722273425</v>
+        <v>-21.86706804305533</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.332972526417627</v>
+        <v>-2.352977565159784</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.5042134808796465</v>
+        <v>-0.5144778463075597</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.287897143837135</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.53786845480789</v>
+        <v>-23.57110981172303</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.424225877224458</v>
+        <v>-2.445461592433738</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.3241550398973878</v>
+        <v>-0.3355977125810564</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.177654155335773</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.60634756537787</v>
+        <v>-25.63935326084186</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.607374101677364</v>
+        <v>-2.628675278400852</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.3239586553547619</v>
+        <v>-0.3371556966192218</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.088806487591286</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.83777347711598</v>
+        <v>-27.87715512406389</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.480548964049563</v>
+        <v>-2.502740417366289</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.4478249325403322</v>
+        <v>-0.4641510341839646</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.021243347165941</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.12633419845538</v>
+        <v>-30.16762732161818</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.97211256654501</v>
+        <v>-2.995966742322635</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.8105864596788781</v>
+        <v>-0.8299761601874744</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.974348220006718</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.30913529743932</v>
+        <v>-32.34900135959237</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.039983064476518</v>
+        <v>-3.063483748077417</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.053291569758796</v>
+        <v>-1.068819040929083</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.948419212419239</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.53089908968023</v>
+        <v>-34.57225767435725</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.404040729596395</v>
+        <v>-3.433079457299343</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.264221660841845</v>
+        <v>-1.286583314095513</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.938306397413262</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.05010691018232</v>
+        <v>-37.09298420198897</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.674815736968974</v>
+        <v>-3.703540249403721</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.675608000734561</v>
+        <v>-1.69812676162233</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.933437257235051</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.583493694662</v>
+        <v>-39.62803370892955</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.608529407681314</v>
+        <v>-3.632213383521997</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.142623535401772</v>
+        <v>-2.170038817552346</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.932215604783613</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.15272720432232</v>
+        <v>-42.19946672546728</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.784450680965588</v>
+        <v>-3.80813465680627</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.490093252821182</v>
+        <v>-2.518254796233734</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.928776565436275</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.43243752894071</v>
+        <v>-44.47595634358661</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.048744998431512</v>
+        <v>-4.07376438916205</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.070475037794898</v>
+        <v>-3.105352932565256</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.931070457912586</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.77683692190008</v>
+        <v>-46.8176979990691</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.202579556821793</v>
+        <v>-4.228855808625137</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.387806274072655</v>
+        <v>-3.41499898707492</v>
       </c>
     </row>
   </sheetData>
